--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1092.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1092.xlsx
@@ -354,7 +354,7 @@
         <v>2.361240139276716</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.740187046126993</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1092.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1092.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.207760329453832</v>
+        <v>1.178113341331482</v>
       </c>
       <c r="B1">
-        <v>2.361240139276716</v>
+        <v>2.417391538619995</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.740187046126993</v>
+        <v>2.332413911819458</v>
       </c>
       <c r="E1">
-        <v>1.14178659295669</v>
+        <v>1.19875156879425</v>
       </c>
     </row>
   </sheetData>
